--- a/outputs/eda/EURUSD_EDA_report.xlsx
+++ b/outputs/eda/EURUSD_EDA_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Descriptive Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Returns Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stationarity" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Descriptive Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Returns Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Stationarity" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,10 +469,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43866</v>
+        <v>43875</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45973</v>
+        <v>45982</v>
       </c>
       <c r="D2" t="n">
         <v>1500</v>
@@ -554,10 +554,10 @@
         <v>1500</v>
       </c>
       <c r="B2" t="n">
-        <v>1.11069914</v>
+        <v>1.111003366666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05775969060887725</v>
+        <v>0.05783336521899728</v>
       </c>
       <c r="D2" t="n">
         <v>0.95906</v>
@@ -566,7 +566,7 @@
         <v>1.0730675</v>
       </c>
       <c r="F2" t="n">
-        <v>1.09675</v>
+        <v>1.09718</v>
       </c>
       <c r="G2" t="n">
         <v>1.1637775</v>
@@ -578,7 +578,7 @@
         <v>0.2733300000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05200300290939026</v>
+        <v>0.05205507647786362</v>
       </c>
     </row>
   </sheetData>
@@ -674,22 +674,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.547076063064021e-05</v>
+        <v>5.250214882616561e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004811467080013594</v>
+        <v>0.004810798658522763</v>
       </c>
       <c r="C2" t="n">
-        <v>3.390893078735493e-05</v>
+        <v>4.094322411008945e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004809549306063445</v>
+        <v>0.004808886319010163</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1401413172212926</v>
+        <v>0.1367800467717637</v>
       </c>
       <c r="F2" t="n">
-        <v>1.635092121271263</v>
+        <v>1.636728195830338</v>
       </c>
       <c r="G2" t="n">
         <v>-0.02276518136994332</v>
@@ -698,13 +698,13 @@
         <v>0.02302451320644416</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1500220068677439</v>
+        <v>0.1732447840166188</v>
       </c>
       <c r="J2" t="n">
-        <v>169.9564456465033</v>
+        <v>170.0556606513871</v>
       </c>
       <c r="K2" t="n">
-        <v>1.242872978104981e-37</v>
+        <v>1.182721471890143e-37</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.675081886698719</v>
+        <v>-1.723240175213792</v>
       </c>
       <c r="C2" t="n">
-        <v>0.443994595003076</v>
+        <v>0.4191799631434206</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.414444976505148</v>
+        <v>1.408118139347521</v>
       </c>
       <c r="C3" t="n">
         <v>0.01</v>
